--- a/Practice/CHOOSE EXAMPLE.xlsx
+++ b/Practice/CHOOSE EXAMPLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Documents/GitHub/Tops-DA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B1F05-A719-DA48-BB37-D2B5E6AD04F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D7F23-D9B6-F243-899F-426020346387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
